--- a/public/downloads/insurance-import-template.xlsx
+++ b/public/downloads/insurance-import-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jevohngentry/Desktop/invictus/public/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001EB663-39A4-C64A-98D4-96F009E5359D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23847223-8128-7A46-8970-4C1E85D42753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2060" yWindow="2740" windowWidth="28040" windowHeight="17440" xr2:uid="{1731E4F9-E7E9-F947-81CD-5F8F1E3655D2}"/>
   </bookViews>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Client ID*</t>
-  </si>
-  <si>
-    <t>Policy Number*</t>
-  </si>
-  <si>
-    <t>Policy Type (Term / Permanent)*</t>
-  </si>
-  <si>
-    <t>Policy Sub-Type (Whole life, Level Term, etc)*</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Effective Date</t>
   </si>
@@ -56,9 +44,6 @@
     <t>Expiration Date</t>
   </si>
   <si>
-    <t>Face / Coverage  Amount $</t>
-  </si>
-  <si>
     <t>Cash Value</t>
   </si>
   <si>
@@ -74,7 +59,19 @@
     <t>Beneficiary Allocation %</t>
   </si>
   <si>
-    <t>Beneficiary Relationship</t>
+    <t>Policy Number</t>
+  </si>
+  <si>
+    <t>Policy Type (Term / Permanent)</t>
+  </si>
+  <si>
+    <t>Face / Coverage Amount</t>
+  </si>
+  <si>
+    <t>Policy Sub-Type (Level Term, etc)</t>
+  </si>
+  <si>
+    <t>Client ID</t>
   </si>
 </sst>
 </file>
@@ -454,11 +451,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547B979A-557C-3543-A46F-634076EE80E8}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -473,48 +468,44 @@
     <col min="10" max="10" width="32.1640625" customWidth="1"/>
     <col min="11" max="11" width="23.83203125" customWidth="1"/>
     <col min="12" max="12" width="21.83203125" customWidth="1"/>
-    <col min="13" max="13" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
